--- a/data/2020-07-18/indiana.xlsx
+++ b/data/2020-07-18/indiana.xlsx
@@ -413,19 +413,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52083</v>
+        <v>50715</v>
       </c>
       <c r="C2" t="n">
-        <v>4456</v>
+        <v>4353</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>8.48</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>8.01</v>
+        <v>7.94</v>
       </c>
       <c r="G2" t="n">
         <v>0.08</v>
@@ -438,22 +438,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95672</v>
+        <v>93646</v>
       </c>
       <c r="C3" t="n">
-        <v>9610</v>
+        <v>9394</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>15.57</v>
+        <v>15.49</v>
       </c>
       <c r="F3" t="n">
-        <v>17.27</v>
+        <v>17.14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
@@ -463,22 +463,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95343</v>
+        <v>93752</v>
       </c>
       <c r="C4" t="n">
-        <v>8815</v>
+        <v>8689</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>15.52</v>
+        <v>15.51</v>
       </c>
       <c r="F4" t="n">
-        <v>15.84</v>
+        <v>15.85</v>
       </c>
       <c r="G4" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -488,22 +488,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92072</v>
+        <v>90708</v>
       </c>
       <c r="C5" t="n">
-        <v>9126</v>
+        <v>8993</v>
       </c>
       <c r="D5" t="n">
         <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>14.98</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>16.4</v>
+        <v>16.41</v>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="6">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99217</v>
+        <v>97923</v>
       </c>
       <c r="C6" t="n">
-        <v>8534</v>
+        <v>8421</v>
       </c>
       <c r="D6" t="n">
         <v>133</v>
       </c>
       <c r="E6" t="n">
-        <v>16.15</v>
+        <v>16.2</v>
       </c>
       <c r="F6" t="n">
-        <v>15.33</v>
+        <v>15.36</v>
       </c>
       <c r="G6" t="n">
-        <v>5.06</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="7">
@@ -538,22 +538,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87020</v>
+        <v>85840</v>
       </c>
       <c r="C7" t="n">
-        <v>6546</v>
+        <v>6456</v>
       </c>
       <c r="D7" t="n">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E7" t="n">
-        <v>14.16</v>
+        <v>14.2</v>
       </c>
       <c r="F7" t="n">
-        <v>11.76</v>
+        <v>11.78</v>
       </c>
       <c r="G7" t="n">
-        <v>15.95</v>
+        <v>15.94</v>
       </c>
     </row>
     <row r="8">
@@ -563,22 +563,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54582</v>
+        <v>53887</v>
       </c>
       <c r="C8" t="n">
-        <v>4108</v>
+        <v>4069</v>
       </c>
       <c r="D8" t="n">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E8" t="n">
-        <v>8.880000000000001</v>
+        <v>8.91</v>
       </c>
       <c r="F8" t="n">
-        <v>7.38</v>
+        <v>7.42</v>
       </c>
       <c r="G8" t="n">
-        <v>24.63</v>
+        <v>24.64</v>
       </c>
     </row>
     <row r="9">
@@ -588,22 +588,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35179</v>
+        <v>34878</v>
       </c>
       <c r="C9" t="n">
-        <v>4426</v>
+        <v>4404</v>
       </c>
       <c r="D9" t="n">
-        <v>1353</v>
+        <v>1344</v>
       </c>
       <c r="E9" t="n">
-        <v>5.73</v>
+        <v>5.77</v>
       </c>
       <c r="F9" t="n">
-        <v>7.95</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>51.5</v>
+        <v>51.49</v>
       </c>
     </row>
     <row r="10">
@@ -613,16 +613,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="F10" t="n">
         <v>0.06</v>
@@ -694,22 +694,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351595</v>
+        <v>346093</v>
       </c>
       <c r="C2" t="n">
-        <v>29102</v>
+        <v>28633</v>
       </c>
       <c r="D2" t="n">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="E2" t="n">
-        <v>57.22</v>
+        <v>57.24</v>
       </c>
       <c r="F2" t="n">
-        <v>52.29</v>
+        <v>52.24</v>
       </c>
       <c r="G2" t="n">
-        <v>48.65</v>
+        <v>48.66</v>
       </c>
     </row>
     <row r="3">
@@ -719,22 +719,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>250890</v>
+        <v>246653</v>
       </c>
       <c r="C3" t="n">
-        <v>25600</v>
+        <v>25231</v>
       </c>
       <c r="D3" t="n">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="E3" t="n">
-        <v>40.83</v>
+        <v>40.79</v>
       </c>
       <c r="F3" t="n">
-        <v>46</v>
+        <v>46.03</v>
       </c>
       <c r="G3" t="n">
-        <v>49.3</v>
+        <v>49.27</v>
       </c>
     </row>
     <row r="4">
@@ -744,22 +744,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11970</v>
+        <v>11889</v>
       </c>
       <c r="C4" t="n">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D4" t="n">
         <v>54</v>
       </c>
       <c r="E4" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="F4" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
     </row>
   </sheetData>
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5145</v>
+        <v>5064</v>
       </c>
       <c r="C2" t="n">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>0.84</v>
       </c>
       <c r="F2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G2" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52900</v>
+        <v>52411</v>
       </c>
       <c r="C3" t="n">
-        <v>6493</v>
+        <v>6426</v>
       </c>
       <c r="D3" t="n">
         <v>373</v>
       </c>
       <c r="E3" t="n">
-        <v>8.609999999999999</v>
+        <v>8.67</v>
       </c>
       <c r="F3" t="n">
-        <v>11.67</v>
+        <v>11.72</v>
       </c>
       <c r="G3" t="n">
-        <v>14.2</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="4">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81932</v>
+        <v>81261</v>
       </c>
       <c r="C4" t="n">
-        <v>9540</v>
+        <v>9425</v>
       </c>
       <c r="D4" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E4" t="n">
-        <v>13.33</v>
+        <v>13.44</v>
       </c>
       <c r="F4" t="n">
-        <v>17.14</v>
+        <v>17.19</v>
       </c>
       <c r="G4" t="n">
-        <v>13.32</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="5">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>116260</v>
+        <v>113387</v>
       </c>
       <c r="C5" t="n">
-        <v>13164</v>
+        <v>12867</v>
       </c>
       <c r="D5" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" t="n">
-        <v>18.92</v>
+        <v>18.75</v>
       </c>
       <c r="F5" t="n">
-        <v>23.65</v>
+        <v>23.47</v>
       </c>
       <c r="G5" t="n">
-        <v>7.12</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="6">
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>358218</v>
+        <v>352512</v>
       </c>
       <c r="C6" t="n">
-        <v>25701</v>
+        <v>25342</v>
       </c>
       <c r="D6" t="n">
-        <v>1703</v>
+        <v>1691</v>
       </c>
       <c r="E6" t="n">
         <v>58.3</v>
       </c>
       <c r="F6" t="n">
-        <v>46.18</v>
+        <v>46.23</v>
       </c>
       <c r="G6" t="n">
-        <v>64.83</v>
+        <v>64.79000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1006,22 +1006,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20640</v>
+        <v>20163</v>
       </c>
       <c r="C2" t="n">
-        <v>6190</v>
+        <v>6102</v>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="F2" t="n">
-        <v>11.12</v>
+        <v>11.13</v>
       </c>
       <c r="G2" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
@@ -1031,22 +1031,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238595</v>
+        <v>233526</v>
       </c>
       <c r="C3" t="n">
-        <v>18794</v>
+        <v>18451</v>
       </c>
       <c r="D3" t="n">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="E3" t="n">
-        <v>38.83</v>
+        <v>38.62</v>
       </c>
       <c r="F3" t="n">
-        <v>33.77</v>
+        <v>33.66</v>
       </c>
       <c r="G3" t="n">
-        <v>52.53</v>
+        <v>52.61</v>
       </c>
     </row>
     <row r="4">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>355220</v>
+        <v>350946</v>
       </c>
       <c r="C4" t="n">
-        <v>30670</v>
+        <v>30260</v>
       </c>
       <c r="D4" t="n">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="E4" t="n">
-        <v>57.81</v>
+        <v>58.04</v>
       </c>
       <c r="F4" t="n">
-        <v>55.11</v>
+        <v>55.21</v>
       </c>
       <c r="G4" t="n">
-        <v>45.49</v>
+        <v>45.44</v>
       </c>
     </row>
   </sheetData>

--- a/data/2020-07-18/indiana.xlsx
+++ b/data/2020-07-18/indiana.xlsx
@@ -413,19 +413,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50715</v>
+        <v>52083</v>
       </c>
       <c r="C2" t="n">
-        <v>4353</v>
+        <v>4456</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>8.390000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="F2" t="n">
-        <v>7.94</v>
+        <v>8.01</v>
       </c>
       <c r="G2" t="n">
         <v>0.08</v>
@@ -438,22 +438,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93646</v>
+        <v>95672</v>
       </c>
       <c r="C3" t="n">
-        <v>9394</v>
+        <v>9610</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>15.49</v>
+        <v>15.57</v>
       </c>
       <c r="F3" t="n">
-        <v>17.14</v>
+        <v>17.27</v>
       </c>
       <c r="G3" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -463,22 +463,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93752</v>
+        <v>95343</v>
       </c>
       <c r="C4" t="n">
-        <v>8689</v>
+        <v>8815</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>15.51</v>
+        <v>15.52</v>
       </c>
       <c r="F4" t="n">
-        <v>15.85</v>
+        <v>15.84</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
@@ -488,22 +488,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90708</v>
+        <v>92072</v>
       </c>
       <c r="C5" t="n">
-        <v>8993</v>
+        <v>9126</v>
       </c>
       <c r="D5" t="n">
         <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>14.98</v>
       </c>
       <c r="F5" t="n">
-        <v>16.41</v>
+        <v>16.4</v>
       </c>
       <c r="G5" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="6">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97923</v>
+        <v>99217</v>
       </c>
       <c r="C6" t="n">
-        <v>8421</v>
+        <v>8534</v>
       </c>
       <c r="D6" t="n">
         <v>133</v>
       </c>
       <c r="E6" t="n">
-        <v>16.2</v>
+        <v>16.15</v>
       </c>
       <c r="F6" t="n">
-        <v>15.36</v>
+        <v>15.33</v>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="7">
@@ -538,22 +538,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85840</v>
+        <v>87020</v>
       </c>
       <c r="C7" t="n">
-        <v>6456</v>
+        <v>6546</v>
       </c>
       <c r="D7" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E7" t="n">
-        <v>14.2</v>
+        <v>14.16</v>
       </c>
       <c r="F7" t="n">
-        <v>11.78</v>
+        <v>11.76</v>
       </c>
       <c r="G7" t="n">
-        <v>15.94</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="8">
@@ -563,22 +563,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53887</v>
+        <v>54582</v>
       </c>
       <c r="C8" t="n">
-        <v>4069</v>
+        <v>4108</v>
       </c>
       <c r="D8" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E8" t="n">
-        <v>8.91</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>7.42</v>
+        <v>7.38</v>
       </c>
       <c r="G8" t="n">
-        <v>24.64</v>
+        <v>24.63</v>
       </c>
     </row>
     <row r="9">
@@ -588,22 +588,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34878</v>
+        <v>35179</v>
       </c>
       <c r="C9" t="n">
-        <v>4404</v>
+        <v>4426</v>
       </c>
       <c r="D9" t="n">
-        <v>1344</v>
+        <v>1353</v>
       </c>
       <c r="E9" t="n">
-        <v>5.77</v>
+        <v>5.73</v>
       </c>
       <c r="F9" t="n">
-        <v>8.029999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="G9" t="n">
-        <v>51.49</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="10">
@@ -613,16 +613,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="C10" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="F10" t="n">
         <v>0.06</v>
@@ -694,22 +694,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>346093</v>
+        <v>351595</v>
       </c>
       <c r="C2" t="n">
-        <v>28633</v>
+        <v>29102</v>
       </c>
       <c r="D2" t="n">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="E2" t="n">
-        <v>57.24</v>
+        <v>57.22</v>
       </c>
       <c r="F2" t="n">
-        <v>52.24</v>
+        <v>52.29</v>
       </c>
       <c r="G2" t="n">
-        <v>48.66</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="3">
@@ -719,22 +719,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246653</v>
+        <v>250890</v>
       </c>
       <c r="C3" t="n">
-        <v>25231</v>
+        <v>25600</v>
       </c>
       <c r="D3" t="n">
-        <v>1286</v>
+        <v>1295</v>
       </c>
       <c r="E3" t="n">
-        <v>40.79</v>
+        <v>40.83</v>
       </c>
       <c r="F3" t="n">
-        <v>46.03</v>
+        <v>46</v>
       </c>
       <c r="G3" t="n">
-        <v>49.27</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="4">
@@ -744,22 +744,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11889</v>
+        <v>11970</v>
       </c>
       <c r="C4" t="n">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="D4" t="n">
         <v>54</v>
       </c>
       <c r="E4" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="G4" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
     </row>
   </sheetData>
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5064</v>
+        <v>5145</v>
       </c>
       <c r="C2" t="n">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
         <v>0.84</v>
       </c>
       <c r="F2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52411</v>
+        <v>52900</v>
       </c>
       <c r="C3" t="n">
-        <v>6426</v>
+        <v>6493</v>
       </c>
       <c r="D3" t="n">
         <v>373</v>
       </c>
       <c r="E3" t="n">
-        <v>8.67</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>11.72</v>
+        <v>11.67</v>
       </c>
       <c r="G3" t="n">
-        <v>14.29</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="4">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81261</v>
+        <v>81932</v>
       </c>
       <c r="C4" t="n">
-        <v>9425</v>
+        <v>9540</v>
       </c>
       <c r="D4" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E4" t="n">
-        <v>13.44</v>
+        <v>13.33</v>
       </c>
       <c r="F4" t="n">
-        <v>17.19</v>
+        <v>17.14</v>
       </c>
       <c r="G4" t="n">
-        <v>13.3</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="5">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113387</v>
+        <v>116260</v>
       </c>
       <c r="C5" t="n">
-        <v>12867</v>
+        <v>13164</v>
       </c>
       <c r="D5" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E5" t="n">
-        <v>18.75</v>
+        <v>18.92</v>
       </c>
       <c r="F5" t="n">
-        <v>23.47</v>
+        <v>23.65</v>
       </c>
       <c r="G5" t="n">
-        <v>7.13</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="6">
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352512</v>
+        <v>358218</v>
       </c>
       <c r="C6" t="n">
-        <v>25342</v>
+        <v>25701</v>
       </c>
       <c r="D6" t="n">
-        <v>1691</v>
+        <v>1703</v>
       </c>
       <c r="E6" t="n">
         <v>58.3</v>
       </c>
       <c r="F6" t="n">
-        <v>46.23</v>
+        <v>46.18</v>
       </c>
       <c r="G6" t="n">
-        <v>64.79000000000001</v>
+        <v>64.83</v>
       </c>
     </row>
   </sheetData>
@@ -1006,22 +1006,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20163</v>
+        <v>20640</v>
       </c>
       <c r="C2" t="n">
-        <v>6102</v>
+        <v>6190</v>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="F2" t="n">
-        <v>11.13</v>
+        <v>11.12</v>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="3">
@@ -1031,22 +1031,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>233526</v>
+        <v>238595</v>
       </c>
       <c r="C3" t="n">
-        <v>18451</v>
+        <v>18794</v>
       </c>
       <c r="D3" t="n">
-        <v>1373</v>
+        <v>1380</v>
       </c>
       <c r="E3" t="n">
-        <v>38.62</v>
+        <v>38.83</v>
       </c>
       <c r="F3" t="n">
-        <v>33.66</v>
+        <v>33.77</v>
       </c>
       <c r="G3" t="n">
-        <v>52.61</v>
+        <v>52.53</v>
       </c>
     </row>
     <row r="4">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350946</v>
+        <v>355220</v>
       </c>
       <c r="C4" t="n">
-        <v>30260</v>
+        <v>30670</v>
       </c>
       <c r="D4" t="n">
-        <v>1186</v>
+        <v>1195</v>
       </c>
       <c r="E4" t="n">
-        <v>58.04</v>
+        <v>57.81</v>
       </c>
       <c r="F4" t="n">
-        <v>55.21</v>
+        <v>55.11</v>
       </c>
       <c r="G4" t="n">
-        <v>45.44</v>
+        <v>45.49</v>
       </c>
     </row>
   </sheetData>
